--- a/3B5 2025 Excel Data Tables.xlsx
+++ b/3B5 2025 Excel Data Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongqingjiang/Desktop/Part IIA/Coursework/3B5_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A3DABD-AA53-1146-ADEC-5A09C3647FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8995F85-85D3-4846-A16A-A24C40228D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" activeTab="3" xr2:uid="{743B6A30-7D1E-4E53-9B73-205143DEE491}"/>
+    <workbookView xWindow="-20" yWindow="680" windowWidth="29400" windowHeight="17220" activeTab="2" xr2:uid="{743B6A30-7D1E-4E53-9B73-205143DEE491}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>10 pf as</t>
   </si>
@@ -1419,6 +1419,10 @@
   </si>
   <si>
     <t>p-n forward voltage</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_s</t>
     <phoneticPr fontId="50" type="noConversion"/>
   </si>
 </sst>
@@ -3157,6 +3161,737 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>pn</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Experiment 2B'!$F$7:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.36909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60429999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Experiment 2B'!$G$7:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.4457764250601226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1488739364732359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8370583276910528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7817962941404062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4484843123505389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1485587843430505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.044928538722651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.327213780684696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12AD-C845-8B93-F5A0326CA7AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1875053632"/>
+        <c:axId val="1875063936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1875053632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875063936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875063936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875053632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>SBD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0469816272965886E-2"/>
+          <c:y val="0.20354184893554972"/>
+          <c:w val="0.88071084864391946"/>
+          <c:h val="0.71220691163604555"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Experiment 2B'!$C$7:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.7300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21840000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Experiment 2B'!$D$7:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3667332177196698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1547969547763586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8684027154274041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7785026749661554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4494768682632904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.146090256799722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0533437356479354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3241747265298454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6B7-1144-9F2C-B2043FE47312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1876710208"/>
+        <c:axId val="1876705280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1876710208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876705280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1876705280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876710208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3237,6 +3972,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3754,6 +4569,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4548,16 +6395,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1374913</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>181389</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270013</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>905289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9110</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65156</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4577,6 +6424,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>522993</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22AF5F6-F13C-BA9B-F18D-85C84664AF1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>620007</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167746</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F05B224-A6EB-7856-272F-D1CEED6AD3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4884,8 +6808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A9978E-11A1-4628-A7BE-8934C7EA26E9}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView topLeftCell="C5" zoomScale="167" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5281,8 +7205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3486D5A6-B75D-4695-8F97-E95B0FAD4D55}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B1" zoomScale="142" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5586,18 +7510,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F4B51A-D113-4914-AF53-DE568761F3B5}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="144" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34">
+    <row r="1" spans="1:9" ht="34">
       <c r="A1" s="54"/>
       <c r="B1" s="54" t="s">
         <v>31</v>
@@ -5614,7 +7540,7 @@
       </c>
       <c r="G1" s="54"/>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="62"/>
       <c r="B2" s="62"/>
       <c r="C2" s="23" t="s">
@@ -5629,7 +7555,7 @@
       </c>
       <c r="G2" s="62"/>
     </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1">
+    <row r="3" spans="1:9" ht="18" thickBot="1">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="20"/>
@@ -5640,7 +7566,7 @@
       </c>
       <c r="G3" s="55"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -5662,8 +7588,11 @@
       <c r="G4" s="52" t="s">
         <v>40</v>
       </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -5681,8 +7610,11 @@
         <v>39</v>
       </c>
       <c r="G5" s="63"/>
+      <c r="I5">
+        <v>0.15939999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1">
+    <row r="6" spans="1:9" ht="16" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -5693,7 +7625,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="53"/>
     </row>
-    <row r="7" spans="1:7" ht="24" thickBot="1">
+    <row r="7" spans="1:9" ht="24" thickBot="1">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -5703,16 +7635,22 @@
       <c r="C7" s="12">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27">
+        <f>LN(B7/I$5)+1</f>
+        <v>4.3667332177196698</v>
+      </c>
       <c r="E7" s="12">
         <v>5</v>
       </c>
       <c r="F7" s="12">
         <v>0.36909999999999998</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27">
+        <f>LN(E7/I$5)+1</f>
+        <v>4.4457764250601226</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="24" thickBot="1">
+    <row r="8" spans="1:9" ht="24" thickBot="1">
       <c r="A8" s="10">
         <v>10</v>
       </c>
@@ -5722,16 +7660,22 @@
       <c r="C8" s="12">
         <v>0.107</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="27">
+        <f t="shared" ref="D8:D14" si="0">LN(B8/I$5)+1</f>
+        <v>5.1547969547763586</v>
+      </c>
       <c r="E8" s="12">
         <v>10.1</v>
       </c>
       <c r="F8" s="12">
         <v>0.40429999999999999</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="27">
+        <f t="shared" ref="G8:G14" si="1">LN(E8/I$5)+1</f>
+        <v>5.1488739364732359</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="24" thickBot="1">
+    <row r="9" spans="1:9" ht="24" thickBot="1">
       <c r="A9" s="10">
         <v>20</v>
       </c>
@@ -5741,16 +7685,22 @@
       <c r="C9" s="12">
         <v>0.12590000000000001</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="27">
+        <f t="shared" si="0"/>
+        <v>5.8684027154274041</v>
+      </c>
       <c r="E9" s="12">
         <v>20.100000000000001</v>
       </c>
       <c r="F9" s="12">
         <v>0.43730000000000002</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>5.8370583276910528</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="24" thickBot="1">
+    <row r="10" spans="1:9" ht="24" thickBot="1">
       <c r="A10" s="10">
         <v>50</v>
       </c>
@@ -5760,16 +7710,22 @@
       <c r="C10" s="12">
         <v>0.1487</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="27">
+        <f t="shared" si="0"/>
+        <v>6.7785026749661554</v>
+      </c>
       <c r="E10" s="12">
         <v>51.7</v>
       </c>
       <c r="F10" s="12">
         <v>0.48209999999999997</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>6.7817962941404062</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="24" thickBot="1">
+    <row r="11" spans="1:9" ht="24" thickBot="1">
       <c r="A11" s="10">
         <v>100</v>
       </c>
@@ -5779,16 +7735,22 @@
       <c r="C11" s="12">
         <v>0.16739999999999999</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="27">
+        <f t="shared" si="0"/>
+        <v>7.4494768682632904</v>
+      </c>
       <c r="E11" s="12">
         <v>100.7</v>
       </c>
       <c r="F11" s="12">
         <v>0.51449999999999996</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="27">
+        <f t="shared" si="1"/>
+        <v>7.4484843123505389</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="24" thickBot="1">
+    <row r="12" spans="1:9" ht="24" thickBot="1">
       <c r="A12" s="10">
         <v>200</v>
       </c>
@@ -5798,16 +7760,22 @@
       <c r="C12" s="12">
         <v>0.1862</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="27">
+        <f t="shared" si="0"/>
+        <v>8.146090256799722</v>
+      </c>
       <c r="E12" s="12">
         <v>202.8</v>
       </c>
       <c r="F12" s="12">
         <v>0.54769999999999996</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="27">
+        <f t="shared" si="1"/>
+        <v>8.1485587843430505</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" ht="24" thickBot="1">
+    <row r="13" spans="1:9" ht="24" thickBot="1">
       <c r="A13" s="10">
         <v>500</v>
       </c>
@@ -5817,16 +7785,22 @@
       <c r="C13" s="12">
         <v>0.21049999999999999</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="27">
+        <f t="shared" si="0"/>
+        <v>9.0533437356479354</v>
+      </c>
       <c r="E13" s="12">
         <v>497</v>
       </c>
       <c r="F13" s="12">
         <v>0.59040000000000004</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="27">
+        <f t="shared" si="1"/>
+        <v>9.044928538722651</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" ht="24" thickBot="1">
+    <row r="14" spans="1:9" ht="24" thickBot="1">
       <c r="A14" s="10">
         <v>700</v>
       </c>
@@ -5836,16 +7810,22 @@
       <c r="C14" s="12">
         <v>0.21840000000000001</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="27">
+        <f t="shared" si="0"/>
+        <v>9.3241747265298454</v>
+      </c>
       <c r="E14" s="12">
         <v>659.1</v>
       </c>
       <c r="F14" s="12">
         <v>0.60429999999999995</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="27">
+        <f t="shared" si="1"/>
+        <v>9.327213780684696</v>
+      </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -5867,6 +7847,7 @@
   </mergeCells>
   <phoneticPr fontId="50" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5874,8 +7855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7379AC5-C297-4B46-A05B-126358815D65}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="168" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
